--- a/map-data.xlsx
+++ b/map-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\map-challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\map-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Asia</t>
   </si>
@@ -93,6 +93,51 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_sovereign_states_and_dependent_territories_in_Asia</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Manama</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Thimphu</t>
+  </si>
+  <si>
+    <t>Bandar Seri Begawan</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Yangtze</t>
+  </si>
+  <si>
+    <t>Yellow River</t>
+  </si>
+  <si>
+    <t>Caspian Sea</t>
+  </si>
+  <si>
+    <t>Continent</t>
   </si>
 </sst>
 </file>
@@ -136,9 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,19 +467,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -457,23 +510,23 @@
         <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -481,58 +534,128 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>3</v>
       </c>
     </row>

--- a/map-data.xlsx
+++ b/map-data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Asia</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Continent</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
   </si>
 </sst>
 </file>
@@ -467,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,32 +633,37 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
-        <v>34</v>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>3</v>
       </c>
     </row>

--- a/map-data.xlsx
+++ b/map-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Aisa" sheetId="6" r:id="rId6"/>
     <sheet name="Europe" sheetId="7" r:id="rId7"/>
     <sheet name="NA" sheetId="8" r:id="rId8"/>
+    <sheet name="SA" sheetId="9" r:id="rId9"/>
+    <sheet name="Oceana" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="1070">
   <si>
     <t>Asia</t>
   </si>
@@ -3556,6 +3558,238 @@
   </si>
   <si>
     <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Sucre (official)</t>
+  </si>
+  <si>
+    <r>
+      <t>La Paz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>seat of government</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Easter Island</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>South Tarawa</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Atoll</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <r>
+      <t>Yaren</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>seat of government</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Nukunonu (main settlement, although each atoll has its own administrative centre)</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Yaren</t>
+  </si>
+  <si>
+    <t>Nukunonu</t>
   </si>
 </sst>
 </file>
@@ -30007,6 +30241,2923 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Argentina">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Argentina"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="400050"/>
+          <a:ext cx="476250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Bolivia">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Bolivia"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="904875"/>
+          <a:ext cx="476250" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Brazil">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="Brazil"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2085975"/>
+          <a:ext cx="476250" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Chile">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="Chile"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2438400"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Colombia">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="Colombia"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2771775"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Ecuador">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="Ecuador"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3295650"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Falkland Islands">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="Falkland Islands"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3629025"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="French Guiana">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15" tooltip="French Guiana"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4648200"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Guyana">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17" tooltip="Guyana"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5553075"/>
+          <a:ext cx="476250" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Paraguay">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19" tooltip="Paraguay"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6048375"/>
+          <a:ext cx="476250" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1047750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Peru">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21" tooltip="Peru"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6334125"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1066800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="South Georgia and the South Sandwich Islands">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23" tooltip="South Georgia and the South Sandwich Islands"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6667500"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Suriname">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25" tooltip="Suriname"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7877175"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Uruguay">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="Uruguay"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8401050"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Venezuela">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29" tooltip="Venezuela"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8924925"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="American Samoa">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="American Samoa"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Ashmore and Cartier Islands">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Ashmore and Cartier Islands"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1409700"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Australia">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="Australia"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2238375"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Baker Island">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="Baker Island"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2495550"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Cook Islands">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="Cook Islands"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3714750"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Coral Sea Islands">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="Coral Sea Islands"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8982075"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Easter Island">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="Easter Island"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9810750"/>
+          <a:ext cx="476250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Fiji">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="Fiji"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10506075"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="French Polynesia">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15" tooltip="French Polynesia"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10763250"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Guam">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17" tooltip="Guam"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11811000"/>
+          <a:ext cx="476250" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Howland Island">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19" tooltip="Howland Island"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13039725"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Jarvis Island">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20" tooltip="Jarvis Island"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14258925"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Johnston Atoll">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21" tooltip="Johnston Atoll"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15478125"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>933450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Kingman Reef">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22" tooltip="Kingman Reef"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16697325"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Kiribati">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23" tooltip="Kiribati"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17916525"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Marshall Islands">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25" tooltip="Marshall Islands"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18364200"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="Federated States of Micronesia">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="Federated States of Micronesia"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18821400"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="Midway Atoll">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29" tooltip="Midway Atoll"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19278600"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="Nauru">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30" tooltip="Nauru"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20497800"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1314450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="New Caledonia">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32" tooltip="New Caledonia"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21288375"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>981075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="New Zealand">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34" tooltip="New Zealand"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22983825"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="Niue">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36" tooltip="Niue"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23431500"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="Norfolk Island">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38" tooltip="Norfolk Island"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28698825"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="Northern Mariana Islands">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40" tooltip="Northern Mariana Islands"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29908500"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="Palau">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42" tooltip="Palau"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31118175"/>
+          <a:ext cx="476250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="Palmyra Atoll">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44" tooltip="Palmyra Atoll"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31623000"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="Papua New Guinea">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45" tooltip="Papua New Guinea"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="32842200"/>
+          <a:ext cx="476250" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="Pitcairn Islands">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47" tooltip="Pitcairn Islands"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33604200"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1666875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="Samoa">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49" tooltip="Samoa"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="34623375"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1685925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1924050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="Solomon Islands">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51" tooltip="Solomon Islands"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="34880550"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="Tokelau">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53" tooltip="Tokelau"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="35328225"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="Tonga">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55" tooltip="Tonga"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="37490400"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="Tuvalu">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57" tooltip="Tuvalu"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="37938075"/>
+          <a:ext cx="476250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="Vanuatu">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59" tooltip="Vanuatu"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38195250"/>
+          <a:ext cx="476250" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="Wake Island">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61" tooltip="Wake Island"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38500050"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="Wallis and Futuna">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62" tooltip="Wallis and Futuna"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="39719250"/>
+          <a:ext cx="476250" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -30473,6 +33624,836 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>842</v>
+      </c>
+      <c r="B52" t="s">
+        <v>843</v>
+      </c>
+      <c r="C52" t="s">
+        <v>844</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" ref="G52:G90" si="0">"{"""&amp;B52&amp;""":{""city"":["""&amp;C52&amp;"""]}},"</f>
+        <v>{"Name":{"city":["Capital"]}},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C55" t="s">
+        <v>265</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>{"American Samoa":{"city":["Pago Pago"]}},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G56" t="str">
+        <f>""""&amp;B56&amp;""","</f>
+        <v>"Ashmore and Cartier Islands",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>284</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Australia":{"city":["Canberra"]}},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G58" t="str">
+        <f>""""&amp;B58&amp;""","</f>
+        <v>"Baker Island",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C59" t="s">
+        <v>351</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Cook Islands":{"city":["Avarua"]}},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G60" t="str">
+        <f>""""&amp;B60&amp;""","</f>
+        <v>"Coral Sea Islands",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G61" t="str">
+        <f>""""&amp;B61&amp;""","</f>
+        <v>"Easter Island",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C62" t="s">
+        <v>399</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Fiji":{"city":["Suva"]}},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C63" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>{"French Polynesia":{"city":["Papeete"]}},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C64" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Guam":{"city":["Hagåtña"]}},</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G65" t="str">
+        <f>""""&amp;B65&amp;""","</f>
+        <v>"Howland Island",</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G66" t="str">
+        <f>""""&amp;B66&amp;""","</f>
+        <v>"Jarvis Island",</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G67" t="str">
+        <f>""""&amp;B67&amp;""","</f>
+        <v>"Johnston Atoll",</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G68" t="str">
+        <f>""""&amp;B68&amp;""","</f>
+        <v>"Kingman Reef",</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Kiribati":{"city":["South Tarawa"]}},</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C70" t="s">
+        <v>521</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Marshall Islands":{"city":["Majuro"]}},</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C71" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Micronesia":{"city":["Palikir"]}},</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G72" t="str">
+        <f>""""&amp;B72&amp;""","</f>
+        <v>"Midway Atoll",</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Nauru":{"city":["Yaren"]}},</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C74" t="s">
+        <v>559</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="0"/>
+        <v>{"New Caledonia":{"city":["Nouméa"]}},</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C75" t="s">
+        <v>561</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="0"/>
+        <v>{"New Zealand":{"city":["Wellington"]}},</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C76" t="s">
+        <v>569</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Niue":{"city":["Alofi"]}},</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C77" t="s">
+        <v>470</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Norfolk Island":{"city":["Kingston"]}},</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C78" t="s">
+        <v>575</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Northern Mariana Islands":{"city":["Saipan"]}},</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C79" t="s">
+        <v>583</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Palau":{"city":["Ngerulmud"]}},</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G80" t="str">
+        <f>""""&amp;B80&amp;""","</f>
+        <v>"Palmyra Atoll",</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C81" t="s">
+        <v>587</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Papua New Guinea":{"city":["Port Moresby"]}},</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C82" t="s">
+        <v>595</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Pitcairn Islands":{"city":["Adamstown"]}},</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C83" t="s">
+        <v>634</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Samoa":{"city":["Apia"]}},</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C84" t="s">
+        <v>655</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Solomon Islands":{"city":["Honiara"]}},</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Tokelau":{"city":["Nukunonu"]}},</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C86" t="s">
+        <v>706</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Tonga":{"city":["Nukuʻalofa"]}},</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C87" t="s">
+        <v>722</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Tuvalu":{"city":["Funafuti"]}},</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C88" t="s">
+        <v>740</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Vanuatu":{"city":["Port Vila"]}},</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G89" t="str">
+        <f>""""&amp;B89&amp;""","</f>
+        <v>"Wake Island",</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C90" t="s">
+        <v>748</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Wallis and Futuna":{"city":["Mata-Utu"]}},</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="American Samoa" display="https://en.wikipedia.org/wiki/American_Samoa"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="Pago Pago" display="https://en.wikipedia.org/wiki/Pago_Pago"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="Ashmore and Cartier Islands" display="https://en.wikipedia.org/wiki/Ashmore_and_Cartier_Islands"/>
+    <hyperlink ref="B4" r:id="rId4" tooltip="Australia" display="https://en.wikipedia.org/wiki/Australia"/>
+    <hyperlink ref="C4" r:id="rId5" tooltip="Canberra" display="https://en.wikipedia.org/wiki/Canberra"/>
+    <hyperlink ref="B5" r:id="rId6" tooltip="Baker Island" display="https://en.wikipedia.org/wiki/Baker_Island"/>
+    <hyperlink ref="B6" r:id="rId7" tooltip="Cook Islands" display="https://en.wikipedia.org/wiki/Cook_Islands"/>
+    <hyperlink ref="C6" r:id="rId8" tooltip="Avarua" display="https://en.wikipedia.org/wiki/Avarua"/>
+    <hyperlink ref="B7" r:id="rId9" tooltip="Coral Sea Islands" display="https://en.wikipedia.org/wiki/Coral_Sea_Islands"/>
+    <hyperlink ref="B8" r:id="rId10" tooltip="Easter Island" display="https://en.wikipedia.org/wiki/Easter_Island"/>
+    <hyperlink ref="B9" r:id="rId11" tooltip="Fiji" display="https://en.wikipedia.org/wiki/Fiji"/>
+    <hyperlink ref="C9" r:id="rId12" tooltip="Suva" display="https://en.wikipedia.org/wiki/Suva"/>
+    <hyperlink ref="B10" r:id="rId13" tooltip="French Polynesia" display="https://en.wikipedia.org/wiki/French_Polynesia"/>
+    <hyperlink ref="C10" r:id="rId14" tooltip="Papeete" display="https://en.wikipedia.org/wiki/Papeete"/>
+    <hyperlink ref="B11" r:id="rId15" tooltip="Guam" display="https://en.wikipedia.org/wiki/Guam"/>
+    <hyperlink ref="C11" r:id="rId16" tooltip="Hagåtña" display="https://en.wikipedia.org/wiki/Hag%C3%A5t%C3%B1a"/>
+    <hyperlink ref="B12" r:id="rId17" tooltip="Howland Island" display="https://en.wikipedia.org/wiki/Howland_Island"/>
+    <hyperlink ref="B13" r:id="rId18" tooltip="Jarvis Island" display="https://en.wikipedia.org/wiki/Jarvis_Island"/>
+    <hyperlink ref="B14" r:id="rId19" tooltip="Johnston Atoll" display="https://en.wikipedia.org/wiki/Johnston_Atoll"/>
+    <hyperlink ref="B15" r:id="rId20" tooltip="Kingman Reef" display="https://en.wikipedia.org/wiki/Kingman_Reef"/>
+    <hyperlink ref="B16" r:id="rId21" tooltip="Kiribati" display="https://en.wikipedia.org/wiki/Kiribati"/>
+    <hyperlink ref="C16" r:id="rId22" tooltip="South Tarawa" display="https://en.wikipedia.org/wiki/South_Tarawa"/>
+    <hyperlink ref="B17" r:id="rId23" tooltip="Marshall Islands" display="https://en.wikipedia.org/wiki/Marshall_Islands"/>
+    <hyperlink ref="C17" r:id="rId24" tooltip="Majuro" display="https://en.wikipedia.org/wiki/Majuro"/>
+    <hyperlink ref="B18" r:id="rId25" tooltip="Federated States of Micronesia" display="https://en.wikipedia.org/wiki/Federated_States_of_Micronesia"/>
+    <hyperlink ref="C18" r:id="rId26" tooltip="Palikir" display="https://en.wikipedia.org/wiki/Palikir"/>
+    <hyperlink ref="B19" r:id="rId27" tooltip="Midway Atoll" display="https://en.wikipedia.org/wiki/Midway_Atoll"/>
+    <hyperlink ref="B20" r:id="rId28" tooltip="Nauru" display="https://en.wikipedia.org/wiki/Nauru"/>
+    <hyperlink ref="B21" r:id="rId29" tooltip="New Caledonia" display="https://en.wikipedia.org/wiki/New_Caledonia"/>
+    <hyperlink ref="C21" r:id="rId30" tooltip="Nouméa" display="https://en.wikipedia.org/wiki/Noum%C3%A9a"/>
+    <hyperlink ref="B22" r:id="rId31" tooltip="New Zealand" display="https://en.wikipedia.org/wiki/New_Zealand"/>
+    <hyperlink ref="C22" r:id="rId32" tooltip="Wellington" display="https://en.wikipedia.org/wiki/Wellington"/>
+    <hyperlink ref="B23" r:id="rId33" tooltip="Niue" display="https://en.wikipedia.org/wiki/Niue"/>
+    <hyperlink ref="C23" r:id="rId34" tooltip="Alofi" display="https://en.wikipedia.org/wiki/Alofi"/>
+    <hyperlink ref="B24" r:id="rId35" tooltip="Norfolk Island" display="https://en.wikipedia.org/wiki/Norfolk_Island"/>
+    <hyperlink ref="C24" r:id="rId36" tooltip="Kingston, Norfolk Island" display="https://en.wikipedia.org/wiki/Kingston,_Norfolk_Island"/>
+    <hyperlink ref="B25" r:id="rId37" tooltip="Northern Mariana Islands" display="https://en.wikipedia.org/wiki/Northern_Mariana_Islands"/>
+    <hyperlink ref="C25" r:id="rId38" tooltip="Saipan" display="https://en.wikipedia.org/wiki/Saipan"/>
+    <hyperlink ref="B26" r:id="rId39" tooltip="Palau" display="https://en.wikipedia.org/wiki/Palau"/>
+    <hyperlink ref="C26" r:id="rId40" tooltip="Ngerulmud" display="https://en.wikipedia.org/wiki/Ngerulmud"/>
+    <hyperlink ref="B27" r:id="rId41" tooltip="Palmyra Atoll" display="https://en.wikipedia.org/wiki/Palmyra_Atoll"/>
+    <hyperlink ref="B28" r:id="rId42" tooltip="Papua New Guinea" display="https://en.wikipedia.org/wiki/Papua_New_Guinea"/>
+    <hyperlink ref="C28" r:id="rId43" tooltip="Port Moresby" display="https://en.wikipedia.org/wiki/Port_Moresby"/>
+    <hyperlink ref="B29" r:id="rId44" tooltip="Pitcairn Islands" display="https://en.wikipedia.org/wiki/Pitcairn_Islands"/>
+    <hyperlink ref="C29" r:id="rId45" tooltip="Adamstown, Pitcairn Islands" display="https://en.wikipedia.org/wiki/Adamstown,_Pitcairn_Islands"/>
+    <hyperlink ref="B30" r:id="rId46" tooltip="Samoa" display="https://en.wikipedia.org/wiki/Samoa"/>
+    <hyperlink ref="C30" r:id="rId47" tooltip="Apia" display="https://en.wikipedia.org/wiki/Apia"/>
+    <hyperlink ref="B31" r:id="rId48" tooltip="Solomon Islands" display="https://en.wikipedia.org/wiki/Solomon_Islands"/>
+    <hyperlink ref="C31" r:id="rId49" tooltip="Honiara" display="https://en.wikipedia.org/wiki/Honiara"/>
+    <hyperlink ref="B32" r:id="rId50" tooltip="Tokelau" display="https://en.wikipedia.org/wiki/Tokelau"/>
+    <hyperlink ref="C32" r:id="rId51" tooltip="Nukunonu" display="https://en.wikipedia.org/wiki/Nukunonu"/>
+    <hyperlink ref="B33" r:id="rId52" tooltip="Tonga" display="https://en.wikipedia.org/wiki/Tonga"/>
+    <hyperlink ref="C33" r:id="rId53" tooltip="Nukuʻalofa" display="https://en.wikipedia.org/wiki/Nuku%CA%BBalofa"/>
+    <hyperlink ref="B34" r:id="rId54" tooltip="Tuvalu" display="https://en.wikipedia.org/wiki/Tuvalu"/>
+    <hyperlink ref="C34" r:id="rId55" tooltip="Funafuti" display="https://en.wikipedia.org/wiki/Funafuti"/>
+    <hyperlink ref="B35" r:id="rId56" tooltip="Vanuatu" display="https://en.wikipedia.org/wiki/Vanuatu"/>
+    <hyperlink ref="C35" r:id="rId57" tooltip="Port Vila" display="https://en.wikipedia.org/wiki/Port_Vila"/>
+    <hyperlink ref="B36" r:id="rId58" tooltip="Wake Island" display="https://en.wikipedia.org/wiki/Wake_Island"/>
+    <hyperlink ref="B37" r:id="rId59" tooltip="Wallis and Futuna" display="https://en.wikipedia.org/wiki/Wallis_and_Futuna"/>
+    <hyperlink ref="C37" r:id="rId60" tooltip="Mata-Utu" display="https://en.wikipedia.org/wiki/Mata-Utu"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
+  <drawing r:id="rId62"/>
 </worksheet>
 </file>
 
@@ -41725,8 +45706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67:G111"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42806,4 +46787,414 @@
   <pageSetup orientation="portrait" r:id="rId90"/>
   <drawing r:id="rId91"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="25" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>842</v>
+      </c>
+      <c r="B29" t="s">
+        <v>843</v>
+      </c>
+      <c r="C29" t="s">
+        <v>844</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ref="G29:G45" si="0">"{"""&amp;B29&amp;""":{""city"":["""&amp;C29&amp;"""]}},"</f>
+        <v>{"Name":{"city":["Capital"]}},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Argentina":{"city":["Buenos Aires"]}},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Bolivia":{"city":["La Paz"]}},</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Brazil":{"city":["Brasília"]}},</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C34" t="s">
+        <v>340</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Chile":{"city":["Santiago"]}},</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C35" t="s">
+        <v>347</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Colombia":{"city":["Bogotá"]}},</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C36" t="s">
+        <v>379</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Ecuador":{"city":["Quito"]}},</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C37" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Falkland Islands":{"city":["Stanley"]}},</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C38" t="s">
+        <v>405</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>{"French Guiana":{"city":["Cayenne"]}},</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Guyana":{"city":["Georgetown"]}},</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C40" t="s">
+        <v>589</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Paraguay":{"city":["Asunción"]}},</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C41" t="s">
+        <v>591</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Peru":{"city":["Lima"]}},</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C42" t="s">
+        <v>665</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>{"South Georgia and the South Sandwich Islands":{"city":["King Edward Point"]}},</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C43" t="s">
+        <v>683</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Suriname":{"city":["Paramaribo"]}},</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C44" t="s">
+        <v>736</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Uruguay":{"city":["Montevideo"]}},</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C45" t="s">
+        <v>744</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>{"Venezuela":{"city":["Caracas"]}},</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" tooltip="Argentina" display="https://en.wikipedia.org/wiki/Argentina"/>
+    <hyperlink ref="C3" r:id="rId2" tooltip="Buenos Aires" display="https://en.wikipedia.org/wiki/Buenos_Aires"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="Bolivia" display="https://en.wikipedia.org/wiki/Bolivia"/>
+    <hyperlink ref="C4" r:id="rId4" tooltip="Sucre" display="https://en.wikipedia.org/wiki/Sucre"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="Brazil" display="https://en.wikipedia.org/wiki/Brazil"/>
+    <hyperlink ref="C6" r:id="rId6" tooltip="Brasília" display="https://en.wikipedia.org/wiki/Bras%C3%ADlia"/>
+    <hyperlink ref="B7" r:id="rId7" tooltip="Chile" display="https://en.wikipedia.org/wiki/Chile"/>
+    <hyperlink ref="C7" r:id="rId8" tooltip="Santiago, Chile" display="https://en.wikipedia.org/wiki/Santiago,_Chile"/>
+    <hyperlink ref="B8" r:id="rId9" tooltip="Colombia" display="https://en.wikipedia.org/wiki/Colombia"/>
+    <hyperlink ref="C8" r:id="rId10" tooltip="Bogotá" display="https://en.wikipedia.org/wiki/Bogot%C3%A1"/>
+    <hyperlink ref="B9" r:id="rId11" tooltip="Ecuador" display="https://en.wikipedia.org/wiki/Ecuador"/>
+    <hyperlink ref="C9" r:id="rId12" tooltip="Quito" display="https://en.wikipedia.org/wiki/Quito"/>
+    <hyperlink ref="B10" r:id="rId13" tooltip="Falkland Islands" display="https://en.wikipedia.org/wiki/Falkland_Islands"/>
+    <hyperlink ref="C10" r:id="rId14" tooltip="Stanley, Falkland Islands" display="https://en.wikipedia.org/wiki/Stanley,_Falkland_Islands"/>
+    <hyperlink ref="B11" r:id="rId15" tooltip="French Guiana" display="https://en.wikipedia.org/wiki/French_Guiana"/>
+    <hyperlink ref="C11" r:id="rId16" tooltip="Cayenne" display="https://en.wikipedia.org/wiki/Cayenne"/>
+    <hyperlink ref="B12" r:id="rId17" tooltip="Guyana" display="https://en.wikipedia.org/wiki/Guyana"/>
+    <hyperlink ref="C12" r:id="rId18" tooltip="Georgetown, Guyana" display="https://en.wikipedia.org/wiki/Georgetown,_Guyana"/>
+    <hyperlink ref="B13" r:id="rId19" tooltip="Paraguay" display="https://en.wikipedia.org/wiki/Paraguay"/>
+    <hyperlink ref="C13" r:id="rId20" tooltip="Asunción" display="https://en.wikipedia.org/wiki/Asunci%C3%B3n"/>
+    <hyperlink ref="B14" r:id="rId21" tooltip="Peru" display="https://en.wikipedia.org/wiki/Peru"/>
+    <hyperlink ref="C14" r:id="rId22" tooltip="Lima" display="https://en.wikipedia.org/wiki/Lima"/>
+    <hyperlink ref="B15" r:id="rId23" tooltip="South Georgia and the South Sandwich Islands" display="https://en.wikipedia.org/wiki/South_Georgia_and_the_South_Sandwich_Islands"/>
+    <hyperlink ref="C15" r:id="rId24" tooltip="King Edward Point" display="https://en.wikipedia.org/wiki/King_Edward_Point"/>
+    <hyperlink ref="B16" r:id="rId25" tooltip="Suriname" display="https://en.wikipedia.org/wiki/Suriname"/>
+    <hyperlink ref="C16" r:id="rId26" tooltip="Paramaribo" display="https://en.wikipedia.org/wiki/Paramaribo"/>
+    <hyperlink ref="B17" r:id="rId27" tooltip="Uruguay" display="https://en.wikipedia.org/wiki/Uruguay"/>
+    <hyperlink ref="C17" r:id="rId28" tooltip="Montevideo" display="https://en.wikipedia.org/wiki/Montevideo"/>
+    <hyperlink ref="B18" r:id="rId29" tooltip="Venezuela" display="https://en.wikipedia.org/wiki/Venezuela"/>
+    <hyperlink ref="C18" r:id="rId30" tooltip="Caracas" display="https://en.wikipedia.org/wiki/Caracas"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
+  <drawing r:id="rId32"/>
+</worksheet>
 </file>